--- a/params/constants.xlsx
+++ b/params/constants.xlsx
@@ -8,24 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\model2\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528D6AD-D1AB-4B21-9C04-79D9BD726097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAED42-475D-4B6D-825F-7491F9F8CD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Var Name</t>
+  </si>
+  <si>
+    <t>Discriptions</t>
+  </si>
   <si>
     <t>m</t>
   </si>
@@ -34,6 +54,33 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>rTB</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>0.25,0,0;0,1,0;0,0,1</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Discreate Time Step</t>
   </si>
 </sst>
 </file>
@@ -69,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,34 +399,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>9.81</v>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
